--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3500386.643795226</v>
+        <v>3496374.033781232</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>8.296101769922931</v>
       </c>
       <c r="I2" t="n">
-        <v>20.02250045837688</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>57.49360487439463</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>167.3394684859531</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>136.3379271446263</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272053</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.07852635745805</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>36.86810533549452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.8293786295312</v>
       </c>
       <c r="D8" t="n">
-        <v>280.2364984178475</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>69.16121449564825</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.9364757300301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.80978492054801</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.41917683133136</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.76214411214</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>124.0908577194979</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>236.7488901283186</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>27.24739666248491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>5.64015276937488</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>241.2831928543109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>126.5816737497801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>81.88270281562022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>88.42183553064734</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.300932605789</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>806.3384156653776</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>806.3384156653776</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E2" t="n">
-        <v>806.3384156653776</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="F2" t="n">
-        <v>395.3525108757701</v>
+        <v>531.9613661254182</v>
       </c>
       <c r="G2" t="n">
-        <v>384.3204647611706</v>
+        <v>116.8889159704146</v>
       </c>
       <c r="H2" t="n">
-        <v>86.73686436993785</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669911</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.8906159540807</v>
+        <v>980.7518458718749</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1254.981825094946</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1000.297336889059</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>710.880166852098</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>482.8906159540807</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.8906159540807</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.53911114974</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093283</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8615162854633</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>553.5665556852751</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.773976541745</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2269.968910186252</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1901.006393245841</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2656.568750250374</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981029</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>467.731836970196</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2319.876964645598</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2100.27549966854</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1811.200273012738</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.515784806851</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.09861476989</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283426</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081858</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153951</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305899</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.932614305899</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>4262.384993990606</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>4262.384993990606</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3972.967823953645</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055628</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2071.718244760802</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1782.643018104999</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1527.958529899112</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1238.541359862152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1010.551808964134</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.7592298206043</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1738.320787451601</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1483.636299245714</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1194.219129208753</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>966.2295783107356</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.2476448606602</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>785.3114619327533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6685,19 +6685,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,31 +6706,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3112.537432147379</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2943.601249219472</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3804.39564615811</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3514.978476121149</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3514.978476121149</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3294.185896977619</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>639.9526724577793</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>492.0395788753862</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.1654765207634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.31459260779033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.43558426092557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.1580536648034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.9753202488375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>125.5559695740479</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>56.9992124922839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26432,10 +26432,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176931</v>
+        <v>-768789.0041176927</v>
       </c>
       <c r="C6" t="n">
-        <v>559955.7416099001</v>
+        <v>559955.7416098996</v>
       </c>
       <c r="D6" t="n">
-        <v>559955.7416098993</v>
+        <v>559955.7416098996</v>
       </c>
       <c r="E6" t="n">
-        <v>307688.6929001748</v>
+        <v>307341.3136458182</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075303</v>
+        <v>632753.775453173</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.1547075299</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.1547075304</v>
+        <v>632753.7754531732</v>
       </c>
       <c r="J6" t="n">
-        <v>415569.9523102527</v>
+        <v>415222.5730558955</v>
       </c>
       <c r="K6" t="n">
-        <v>633101.1547075303</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="L6" t="n">
-        <v>633101.1547075302</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="M6" t="n">
-        <v>548046.1267720185</v>
+        <v>547698.7475176611</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075302</v>
+        <v>632753.7754531729</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.1547075302</v>
+        <v>632753.7754531734</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.1547075303</v>
+        <v>632753.7754531732</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,31 +26962,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="I2" t="n">
-        <v>21.55442931454907</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>109.7532162242332</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>118.8723697196598</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>218.3451144760566</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.891036843333</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>92.67648855686274</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>188.8415500535426</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>111.4435131414763</v>
       </c>
       <c r="D8" t="n">
-        <v>74.44654320283547</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>120.6078108357936</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.64817762206474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>518.0009690113193</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32253,7 +32253,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7190218511039</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>386.659256927986</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>207.1227774066595</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3496374.033781232</v>
+        <v>3498134.564084018</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>8.296101769922931</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.214071909543</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>57.49360487439463</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>57.49360487439474</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>21.27902055891022</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.34690181272053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.8293786295312</v>
+        <v>19.34104464821399</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.33835225137435</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69.16121449564825</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.80978492054801</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722636</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137283</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>186.0007748420842</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150257</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9472709150257</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>942.9472709150257</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>531.9613661254182</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>116.8889159704146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,16 +4333,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>980.7518458718749</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4530,10 +4530,10 @@
         <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.192889845645</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.400310702115</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4573,16 +4573,16 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>1995.741330469123</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544676</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1767.604278224154</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.604278224154</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="11">
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5190,61 +5190,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.563011941682</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.48778528588</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1646.803297079993</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.386127043032</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7311,25 +7311,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489159</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>208.7894017452182</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244625</v>
@@ -26322,40 +26322,40 @@
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26441,13 +26441,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768789.0041176927</v>
+        <v>-768789.0041176925</v>
       </c>
       <c r="C6" t="n">
         <v>559955.7416098996</v>
@@ -26530,40 +26530,40 @@
         <v>559955.7416098996</v>
       </c>
       <c r="E6" t="n">
-        <v>307341.3136458182</v>
+        <v>307653.9549747389</v>
       </c>
       <c r="F6" t="n">
-        <v>632753.775453173</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="G6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="H6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="I6" t="n">
-        <v>632753.7754531732</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="J6" t="n">
-        <v>415222.5730558955</v>
+        <v>415535.2143848168</v>
       </c>
       <c r="K6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820943</v>
       </c>
       <c r="L6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="M6" t="n">
-        <v>547698.7475176611</v>
+        <v>548011.3888465825</v>
       </c>
       <c r="N6" t="n">
-        <v>632753.7754531729</v>
+        <v>633066.4167820945</v>
       </c>
       <c r="O6" t="n">
-        <v>632753.7754531734</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="P6" t="n">
-        <v>632753.7754531732</v>
+        <v>633066.4167820944</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.3116626173975</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>174.0238667465106</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>109.7532162242332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>168.2160505146424</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>333.4040210617728</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.891036843333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>111.4435131414763</v>
+        <v>345.9318471227936</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.01406815846374</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>120.6078108357936</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.363222181645649e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.487140834762211e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>518.0009690113193</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>386.659256927986</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
